--- a/medicine/Enfance/Michèle_Piquard/Michèle_Piquard.xlsx
+++ b/medicine/Enfance/Michèle_Piquard/Michèle_Piquard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mich%C3%A8le_Piquard</t>
+          <t>Michèle_Piquard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michèle Piquard (née le 15 juin 1955 et morte le 8 juillet 2012) est une universitaire, chercheuse au CNRS, au Laboratoire d’anthropologie et d’histoire de l’institution de la culture (LAHIC)[1]. Elle est spécialisée en littérature jeunesse et en histoire de l'édition.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michèle Piquard (née le 15 juin 1955 et morte le 8 juillet 2012) est une universitaire, chercheuse au CNRS, au Laboratoire d’anthropologie et d’histoire de l’institution de la culture (LAHIC). Elle est spécialisée en littérature jeunesse et en histoire de l'édition.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mich%C3%A8le_Piquard</t>
+          <t>Michèle_Piquard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Parcours universitaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michèle Piquard suit un cursus de lettres classiques à l’université de Tours, Elle soutient une thèse sur l’histoire de l’édition contemporaine pour la jeunesse[2], devenue en 2004 un livre publié aux Presses de l’ENSSIB[3]. Elle devient ensuite bibliothécaire.  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michèle Piquard suit un cursus de lettres classiques à l’université de Tours, Elle soutient une thèse sur l’histoire de l’édition contemporaine pour la jeunesse, devenue en 2004 un livre publié aux Presses de l’ENSSIB. Elle devient ensuite bibliothécaire.  
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mich%C3%A8le_Piquard</t>
+          <t>Michèle_Piquard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Champs d'étude et engagement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses recherches analysent l’édition française pour la jeunesse, en partant des discours, des stratégies et de l'économie des acteurs de ce secteur.
 </t>
